--- a/src/assets/ExcelSample/ChiTietXuatKhau.xlsx
+++ b/src/assets/ExcelSample/ChiTietXuatKhau.xlsx
@@ -574,16 +574,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.44140625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="19.44140625" style="3" customWidth="1"/>
     <col min="15" max="15" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
